--- a/biology/Médecine/André-Claude_Dussaussoy/André-Claude_Dussaussoy.xlsx
+++ b/biology/Médecine/André-Claude_Dussaussoy/André-Claude_Dussaussoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Claude_Dussaussoy</t>
+          <t>André-Claude_Dussaussoy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André-Claude Dussaussoy, né le 30 novembre 1755 à Lyon et mort le 13 décembre 1820 à Lyon, fut chirurgie-major de l'Hôtel-Dieu de Lyon. Il était un spécialiste de la lutte contre la gangrène. Il devint membre de l’Académie des sciences, belles-lettres et arts de Lyon, en 1800, au réveil de celle-ci. 
 On lui doit deux ouvrages :
 Dissertation sur la Gangrène des hôpitaux avec les moyens de la prévenir et de la combattre, Genève &amp; Lyon, 1787, in-8°
 Cure rad1cale de l'Hydrocèle par le caustique, 1787,  in-8]. Cet ouvrage fut traduit en allemand : Leipsick, 1790, in-8°
-Il est enterré dans le caveau familial au cimetière de Loyasse de Lyon [1].
+Il est enterré dans le caveau familial au cimetière de Loyasse de Lyon .
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Claude_Dussaussoy</t>
+          <t>André-Claude_Dussaussoy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Lyon, sise entre la rue Vauban et la rue Bugeaud, porte son nom.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Claude_Dussaussoy</t>
+          <t>André-Claude_Dussaussoy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1835, Buste d'André Claude Dussaussoy, réalisé par Jean-François Legendre-Héral, marbre, Hôtel-Dieu de Lyon, salle du grand Dôme.</t>
         </is>
